--- a/src/experiment/results/wilcoxon/colon/merged_colon_data.xlsx
+++ b/src/experiment/results/wilcoxon/colon/merged_colon_data.xlsx
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.8375</v>
       </c>
       <c r="F47" t="n">
         <v>0.125</v>
@@ -2129,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8125</v>
       </c>
       <c r="F49" t="n">
         <v>0.125</v>
@@ -2161,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F50" t="n">
         <v>0.125</v>
@@ -2193,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="F51" t="n">
         <v>0.125</v>
@@ -2225,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -2257,10 +2257,10 @@
         <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -2289,10 +2289,10 @@
         <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8125</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2321,10 +2321,10 @@
         <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.65</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2385,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2420,7 +2420,7 @@
         <v>0.7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2449,10 +2449,10 @@
         <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8125</v>
+        <v>0.6571428571428573</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -2481,10 +2481,10 @@
         <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -2513,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4571428571428572</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.8375</v>
       </c>
       <c r="F67" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>0.7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -2755,10 +2755,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8125</v>
       </c>
       <c r="F69" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -2785,10 +2785,10 @@
         <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6875</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F70" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.75</v>
       </c>
       <c r="F71" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -2845,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.763888888888889</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -2875,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2905,10 +2905,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -2935,10 +2935,10 @@
         <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -2965,10 +2965,10 @@
         <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -2995,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0.638888888888889</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -3025,10 +3025,10 @@
         <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -3055,10 +3055,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8125</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -3085,10 +3085,10 @@
         <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -3115,10 +3115,10 @@
         <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.8375</v>
       </c>
       <c r="F87" t="n">
         <v>0.125</v>
@@ -3355,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8125</v>
       </c>
       <c r="F89" t="n">
         <v>0.125</v>
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F90" t="n">
         <v>0.125</v>
@@ -3415,7 +3415,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="F91" t="n">
         <v>0.125</v>
@@ -3445,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -3475,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
@@ -3505,10 +3505,10 @@
         <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8125</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -3535,10 +3535,10 @@
         <v>4</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.65</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -3565,10 +3565,10 @@
         <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3595,10 +3595,10 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
@@ -3628,7 +3628,7 @@
         <v>0.7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
@@ -3655,10 +3655,10 @@
         <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8125</v>
+        <v>0.6571428571428573</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -3685,10 +3685,10 @@
         <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -3715,10 +3715,10 @@
         <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4571428571428572</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
